--- a/资产负债表/300055.xlsx
+++ b/资产负债表/300055.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,61 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>7027621003.35</v>
+        <v>7157222680.32</v>
       </c>
       <c r="P2" t="n">
-        <v>818585685.63</v>
+        <v>614690693.92</v>
       </c>
       <c r="Q2" t="n">
-        <v>309150440.96</v>
+        <v>510920179.46</v>
       </c>
       <c r="R2" t="n">
-        <v>-55.3951259785</v>
+        <v>-27.0163305842</v>
       </c>
       <c r="S2" t="n">
-        <v>654563610.27</v>
+        <v>547173635.55</v>
       </c>
       <c r="T2" t="n">
-        <v>-39.9386792842</v>
+        <v>-49.9040128234</v>
       </c>
       <c r="U2" t="n">
-        <v>53524908.84</v>
+        <v>39486096.72</v>
       </c>
       <c r="V2" t="n">
-        <v>-92.48754654530001</v>
+        <v>-93.2809131133</v>
       </c>
       <c r="W2" t="n">
-        <v>1138026356.96</v>
+        <v>1344960189.92</v>
       </c>
       <c r="X2" t="n">
-        <v>402379442.93</v>
+        <v>570855444.1799999</v>
       </c>
       <c r="Y2" t="n">
-        <v>-13.5325215337</v>
-      </c>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+        <v>-11.2053869966</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>46263546.83</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-21.3887687662</v>
+      </c>
       <c r="AB2" t="n">
-        <v>5889594646.39</v>
+        <v>5812262490.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.2709357838</v>
+        <v>1.6005581676</v>
       </c>
       <c r="AD2" t="n">
-        <v>-7.1823381803</v>
+        <v>-3.4837567433</v>
       </c>
       <c r="AE2" t="n">
-        <v>-32.968385773</v>
+        <v>-20.6038125592</v>
       </c>
       <c r="AF2" t="n">
-        <v>446.1720534269</v>
+        <v>301.9241023866</v>
       </c>
       <c r="AG2" t="n">
-        <v>16.1936216597</v>
+        <v>18.7916493589</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
